--- a/outputs_decision/outputs/tables_by_country/Permanent_water_permanent_area.xlsx
+++ b/outputs_decision/outputs/tables_by_country/Permanent_water_permanent_area.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S266"/>
+  <dimension ref="A1:S279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,13 +584,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
@@ -647,13 +647,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>242</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5">
@@ -789,17 +789,39 @@
       <c r="H6" t="n">
         <v>-17.43252721299288</v>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -834,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -849,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
       <c r="Q7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R7" t="n">
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>94</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
@@ -893,17 +915,39 @@
       <c r="H8" t="n">
         <v>2.342369246016524</v>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -956,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S9" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -1013,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O10" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="R10" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="S10" t="n">
-        <v>294</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
@@ -1091,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="S11" t="n">
-        <v>983</v>
+        <v>986</v>
       </c>
     </row>
     <row r="12">
@@ -1154,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
@@ -1186,17 +1230,39 @@
       <c r="H13" t="n">
         <v>16.26977531221462</v>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1227,17 +1293,39 @@
       <c r="H14" t="n">
         <v>-6.404811095439247</v>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1269,7 +1357,7 @@
         <v>0.3979119397000008</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1284,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1331,17 +1419,39 @@
       <c r="H16" t="n">
         <v>0.6619659618346577</v>
       </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1372,17 +1482,39 @@
       <c r="H17" t="n">
         <v>-0.1359643174401462</v>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1413,17 +1545,39 @@
       <c r="H18" t="n">
         <v>4.19050062571193</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1526,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1577,19 +1731,19 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -1652,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1688,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1697,25 +1851,25 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
         <v>2</v>
       </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1</v>
-      </c>
       <c r="P23" t="n">
         <v>1</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
         <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -1748,7 +1902,7 @@
         <v>-1.150899570926082</v>
       </c>
       <c r="I24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>10</v>
@@ -1763,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P24" t="n">
         <v>82</v>
@@ -1775,10 +1929,10 @@
         <v>68</v>
       </c>
       <c r="R24" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="S24" t="n">
-        <v>1010</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="25">
@@ -1810,17 +1964,39 @@
       <c r="H25" t="n">
         <v>-0.4856792368477113</v>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1882,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -1914,17 +2090,39 @@
       <c r="H27" t="n">
         <v>4.558539546975386</v>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1955,17 +2153,39 @@
       <c r="H28" t="n">
         <v>17.32554682600803</v>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2000,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2015,19 +2235,19 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
@@ -2078,19 +2298,19 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>8</v>
+      </c>
+      <c r="R30" t="n">
         <v>3</v>
       </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1</v>
-      </c>
       <c r="S30" t="n">
-        <v>51</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
@@ -2122,17 +2342,39 @@
       <c r="H31" t="n">
         <v>0.1093473134198512</v>
       </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2167,7 +2409,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -2182,19 +2424,19 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
@@ -2245,19 +2487,19 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34">
@@ -2290,10 +2532,10 @@
         <v>-10.27827139065355</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -2308,19 +2550,19 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S34" t="n">
-        <v>37</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35">
@@ -2356,13 +2598,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -2371,19 +2613,19 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
       </c>
       <c r="Q35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R35" t="n">
         <v>6</v>
       </c>
       <c r="S35" t="n">
-        <v>1278</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="36">
@@ -2538,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
         <v>2</v>
       </c>
       <c r="S38" t="n">
-        <v>44</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
@@ -2664,19 +2906,19 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>131</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -2709,37 +2951,37 @@
         <v>1.08019395915147</v>
       </c>
       <c r="I41" t="n">
+        <v>4</v>
+      </c>
+      <c r="J41" t="n">
+        <v>5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
         <v>2</v>
       </c>
-      <c r="J41" t="n">
+      <c r="O41" t="n">
         <v>3</v>
       </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>2</v>
-      </c>
       <c r="P41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>61</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42">
@@ -2772,37 +3014,37 @@
         <v>7.379518655580878</v>
       </c>
       <c r="I42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J42" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="P42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q42" t="n">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="R42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S42" t="n">
-        <v>1023</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="43">
@@ -2920,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -2938,16 +3180,16 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S45" t="n">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -2979,17 +3221,39 @@
       <c r="H46" t="n">
         <v>29.10640138662588</v>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3020,17 +3284,39 @@
       <c r="H47" t="n">
         <v>-4.20884865920355</v>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3083,16 +3369,16 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S48" t="n">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
@@ -3143,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="R49" t="n">
         <v>4</v>
       </c>
       <c r="S49" t="n">
-        <v>133</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50">
@@ -3229,7 +3515,7 @@
         <v>2.942116364383914</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3250,16 +3536,16 @@
         <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
       <c r="S51" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52">
@@ -3310,19 +3596,19 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R52" t="n">
         <v>0</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
@@ -3417,17 +3703,39 @@
       <c r="H54" t="n">
         <v>33.88663271895571</v>
       </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3489,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
@@ -3540,19 +3848,19 @@
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -3615,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="S57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3647,17 +3955,39 @@
       <c r="H58" t="n">
         <v>-44.87076643131085</v>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3688,17 +4018,39 @@
       <c r="H59" t="n">
         <v>-0.5537795138565883</v>
       </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3751,16 +4103,16 @@
         <v>3</v>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61">
@@ -3811,19 +4163,19 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
@@ -3883,10 +4235,10 @@
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
@@ -3919,17 +4271,17 @@
         <v>0.7102277067442837</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
+        <v>5</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>3</v>
       </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
@@ -3937,19 +4289,19 @@
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P63" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q63" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="R63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>112</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64">
@@ -4000,19 +4352,19 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
       </c>
       <c r="S64" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -4045,7 +4397,7 @@
         <v>0.1082931931766454</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4075,7 +4427,7 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -4299,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R69" t="n">
         <v>0</v>
       </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -4368,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="S70" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
@@ -4431,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4494,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="S72" t="n">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73">
@@ -4527,10 +4879,10 @@
         <v>17.79239584998273</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -4551,13 +4903,13 @@
         <v>0</v>
       </c>
       <c r="Q73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R73" t="n">
         <v>0</v>
       </c>
       <c r="S73" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -4630,17 +4982,39 @@
       <c r="H75" t="n">
         <v>-15.41101376215543</v>
       </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4690,19 +5064,19 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P76" t="n">
         <v>0</v>
       </c>
       <c r="Q76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R76" t="n">
         <v>0</v>
       </c>
       <c r="S76" t="n">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77">
@@ -4753,19 +5127,19 @@
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
         <v>0</v>
       </c>
       <c r="Q77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" t="n">
         <v>0</v>
       </c>
       <c r="S77" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
@@ -4797,17 +5171,39 @@
       <c r="H78" t="n">
         <v>7.684590485338936</v>
       </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4842,7 +5238,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4857,19 +5253,19 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
       </c>
       <c r="Q79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R79" t="n">
         <v>0</v>
       </c>
       <c r="S79" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
@@ -4905,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
@@ -4920,19 +5316,19 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P80" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q80" t="n">
         <v>2</v>
       </c>
-      <c r="Q80" t="n">
-        <v>0</v>
-      </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S80" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81">
@@ -4964,17 +5360,39 @@
       <c r="H81" t="n">
         <v>-11.94233587851709</v>
       </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>0</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -5005,17 +5423,39 @@
       <c r="H82" t="n">
         <v>4353.519613872859</v>
       </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0</v>
+      </c>
+      <c r="S82" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -5065,19 +5505,19 @@
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P83" t="n">
         <v>0</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R83" t="n">
         <v>0</v>
       </c>
       <c r="S83" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84">
@@ -5172,17 +5612,39 @@
       <c r="H85" t="n">
         <v>31.74488147227736</v>
       </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5213,17 +5675,39 @@
       <c r="H86" t="n">
         <v>-6.221882014372381</v>
       </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5254,17 +5738,39 @@
       <c r="H87" t="n">
         <v>82.72815696472284</v>
       </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0</v>
+      </c>
+      <c r="S87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5308,7 +5814,7 @@
         <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -5326,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89">
@@ -5377,19 +5883,19 @@
         <v>0</v>
       </c>
       <c r="O89" t="n">
+        <v>3</v>
+      </c>
+      <c r="P89" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
         <v>2</v>
       </c>
-      <c r="P89" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q89" t="n">
-        <v>2</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1</v>
-      </c>
       <c r="S89" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
@@ -5440,19 +5946,19 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P90" t="n">
         <v>0</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R90" t="n">
         <v>0</v>
       </c>
       <c r="S90" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91">
@@ -5515,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -5588,17 +6094,39 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5648,19 +6176,19 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P94" t="n">
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
       </c>
       <c r="S94" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95">
@@ -5692,17 +6220,39 @@
       <c r="H95" t="n">
         <v>-4.7306139969988</v>
       </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5737,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -5758,13 +6308,13 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
       </c>
       <c r="S96" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="97">
@@ -5860,13 +6410,13 @@
         <v>5.17120611381591</v>
       </c>
       <c r="I98" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J98" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L98" t="n">
         <v>0</v>
@@ -5878,19 +6428,19 @@
         <v>2</v>
       </c>
       <c r="O98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P98" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="Q98" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="R98" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S98" t="n">
-        <v>308</v>
+        <v>396</v>
       </c>
     </row>
     <row r="99">
@@ -5923,7 +6473,7 @@
         <v>7.464472256574751</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J99" t="n">
         <v>12</v>
@@ -5938,22 +6488,22 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
       </c>
       <c r="Q99" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S99" t="n">
-        <v>227</v>
+        <v>259</v>
       </c>
     </row>
     <row r="100">
@@ -5986,10 +6536,10 @@
         <v>1.724968032880941</v>
       </c>
       <c r="I100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J100" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -6004,19 +6554,19 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="P100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q100" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="R100" t="n">
         <v>2</v>
       </c>
       <c r="S100" t="n">
-        <v>171</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101">
@@ -6067,19 +6617,19 @@
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P101" t="n">
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
       </c>
       <c r="S101" t="n">
-        <v>31</v>
+        <v>75</v>
       </c>
     </row>
     <row r="102">
@@ -6142,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="S102" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103">
@@ -6174,17 +6724,39 @@
       <c r="H103" t="n">
         <v>-0.5059479577069698</v>
       </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>2</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>2</v>
+      </c>
+      <c r="R103" t="n">
+        <v>0</v>
+      </c>
+      <c r="S103" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -6240,13 +6812,13 @@
         <v>0</v>
       </c>
       <c r="Q104" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R104" t="n">
         <v>0</v>
       </c>
       <c r="S104" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105">
@@ -6255,7 +6827,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Cï¿½te d'Ivoire</t>
+          <t>Côte d'Ivoire</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6297,19 +6869,19 @@
         <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P105" t="n">
         <v>2</v>
       </c>
       <c r="Q105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R105" t="n">
         <v>0</v>
       </c>
       <c r="S105" t="n">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106">
@@ -6426,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="P107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -6435,7 +7007,7 @@
         <v>1</v>
       </c>
       <c r="S107" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="108">
@@ -6468,7 +7040,7 @@
         <v>-0.4000849840115601</v>
       </c>
       <c r="I108" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J108" t="n">
         <v>2</v>
@@ -6483,22 +7055,22 @@
         <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O108" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="P108" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q108" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="R108" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="S108" t="n">
-        <v>220</v>
+        <v>341</v>
       </c>
     </row>
     <row r="109">
@@ -6534,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
@@ -6549,19 +7121,19 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P109" t="n">
         <v>0</v>
       </c>
       <c r="Q109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R109" t="n">
         <v>0</v>
       </c>
       <c r="S109" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="110">
@@ -6615,16 +7187,16 @@
         <v>0</v>
       </c>
       <c r="P110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q110" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R110" t="n">
         <v>0</v>
       </c>
       <c r="S110" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="111">
@@ -6660,7 +7232,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>0</v>
@@ -6675,19 +7247,19 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P111" t="n">
         <v>0</v>
       </c>
       <c r="Q111" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S111" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="112">
@@ -6750,7 +7322,7 @@
         <v>0</v>
       </c>
       <c r="S112" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113">
@@ -6782,17 +7354,39 @@
       <c r="H113" t="n">
         <v>65.56369491544039</v>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>2</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6827,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -6845,16 +7439,16 @@
         <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="115">
@@ -6905,19 +7499,19 @@
         <v>0</v>
       </c>
       <c r="O115" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P115" t="n">
         <v>0</v>
       </c>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R115" t="n">
         <v>0</v>
       </c>
       <c r="S115" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116">
@@ -6949,17 +7543,39 @@
       <c r="H116" t="n">
         <v>-7.201545899921884</v>
       </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="inlineStr"/>
-      <c r="N116" t="inlineStr"/>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>0</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -7015,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="Q117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R117" t="n">
         <v>0</v>
       </c>
       <c r="S117" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
@@ -7084,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="S118" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
@@ -7138,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -7147,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="S119" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120">
@@ -7183,7 +7799,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
         <v>1</v>
@@ -7204,13 +7820,13 @@
         <v>3</v>
       </c>
       <c r="Q120" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R120" t="n">
         <v>4</v>
       </c>
       <c r="S120" t="n">
-        <v>122</v>
+        <v>172</v>
       </c>
     </row>
     <row r="121">
@@ -7242,17 +7858,39 @@
       <c r="H121" t="n">
         <v>7.256750954863676</v>
       </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>0</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -7314,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="S122" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
@@ -7346,17 +7984,39 @@
       <c r="H123" t="n">
         <v>-2.775839123966016</v>
       </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="inlineStr"/>
-      <c r="N123" t="inlineStr"/>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>0</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7387,17 +8047,39 @@
       <c r="H124" t="n">
         <v>-9.947664287513325</v>
       </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>0</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7495,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K126" t="n">
         <v>0</v>
@@ -7510,19 +8192,19 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S126" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="127">
@@ -7558,7 +8240,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
@@ -7576,16 +8258,16 @@
         <v>0</v>
       </c>
       <c r="P127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q127" t="n">
         <v>2</v>
       </c>
       <c r="R127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S127" t="n">
-        <v>28</v>
+        <v>61</v>
       </c>
     </row>
     <row r="128">
@@ -7662,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -7677,19 +8359,19 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q129" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R129" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S129" t="n">
-        <v>128</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130">
@@ -7721,17 +8403,39 @@
       <c r="H130" t="n">
         <v>-59.54770152966975</v>
       </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1</v>
+      </c>
+      <c r="S130" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7762,17 +8466,39 @@
       <c r="H131" t="n">
         <v>-3.538491768569626</v>
       </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="inlineStr"/>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
+      </c>
+      <c r="P131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>0</v>
+      </c>
+      <c r="S131" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7804,7 +8530,7 @@
         <v>55.84060955872605</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
         <v>1</v>
@@ -7822,19 +8548,19 @@
         <v>0</v>
       </c>
       <c r="O132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S132" t="n">
-        <v>115</v>
+        <v>171</v>
       </c>
     </row>
     <row r="133">
@@ -7911,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -7926,19 +8652,19 @@
         <v>1</v>
       </c>
       <c r="O134" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P134" t="n">
         <v>0</v>
       </c>
       <c r="Q134" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="R134" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S134" t="n">
-        <v>260</v>
+        <v>301</v>
       </c>
     </row>
     <row r="135">
@@ -7970,17 +8696,39 @@
       <c r="H135" t="n">
         <v>5.024560346202371</v>
       </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="inlineStr"/>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>0</v>
+      </c>
+      <c r="P135" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>0</v>
+      </c>
+      <c r="S135" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -8012,7 +8760,7 @@
         <v>-0.5659315625911525</v>
       </c>
       <c r="I136" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J136" t="n">
         <v>1</v>
@@ -8024,25 +8772,25 @@
         <v>3</v>
       </c>
       <c r="M136" t="n">
+        <v>3</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>4</v>
+      </c>
+      <c r="P136" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1</v>
+      </c>
+      <c r="R136" t="n">
         <v>2</v>
       </c>
-      <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="n">
-        <v>3</v>
-      </c>
-      <c r="P136" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>1</v>
-      </c>
-      <c r="R136" t="n">
-        <v>1</v>
-      </c>
       <c r="S136" t="n">
-        <v>132</v>
+        <v>231</v>
       </c>
     </row>
     <row r="137">
@@ -8105,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
@@ -8137,17 +8885,39 @@
       <c r="H138" t="n">
         <v>-0.2951730617957999</v>
       </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="inlineStr"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0</v>
+      </c>
+      <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8178,17 +8948,39 @@
       <c r="H139" t="n">
         <v>-96.2080669678777</v>
       </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1</v>
+      </c>
+      <c r="S139" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8223,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K140" t="n">
         <v>0</v>
@@ -8247,10 +9039,10 @@
         <v>2</v>
       </c>
       <c r="R140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S140" t="n">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="141">
@@ -8283,7 +9075,7 @@
         <v>-1.272701089577988</v>
       </c>
       <c r="I141" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J141" t="n">
         <v>7</v>
@@ -8301,19 +9093,19 @@
         <v>0</v>
       </c>
       <c r="O141" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P141" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q141" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R141" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S141" t="n">
-        <v>92</v>
+        <v>148</v>
       </c>
     </row>
     <row r="142">
@@ -8370,13 +9162,13 @@
         <v>0</v>
       </c>
       <c r="Q142" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R142" t="n">
         <v>0</v>
       </c>
       <c r="S142" t="n">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="143">
@@ -8412,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -8421,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -8430,16 +9222,16 @@
         <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q143" t="n">
         <v>2</v>
       </c>
       <c r="R143" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S143" t="n">
-        <v>73</v>
+        <v>120</v>
       </c>
     </row>
     <row r="144">
@@ -8471,17 +9263,39 @@
       <c r="H144" t="n">
         <v>448862.183284398</v>
       </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0</v>
+      </c>
+      <c r="P144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>0</v>
+      </c>
+      <c r="S144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8513,7 +9327,7 @@
         <v>-1.776758463542879</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -8531,19 +9345,19 @@
         <v>0</v>
       </c>
       <c r="O145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S145" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146">
@@ -8600,13 +9414,13 @@
         <v>0</v>
       </c>
       <c r="Q146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R146" t="n">
         <v>0</v>
       </c>
       <c r="S146" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -8615,7 +9429,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Curaï¿½ao</t>
+          <t>Curaçao</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -8638,17 +9452,39 @@
       <c r="H147" t="n">
         <v>-4.072446833817418</v>
       </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="inlineStr"/>
-      <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
+      <c r="R147" t="n">
+        <v>0</v>
+      </c>
+      <c r="S147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -8679,17 +9515,39 @@
       <c r="H148" t="n">
         <v>-1.63455229632946</v>
       </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
+      </c>
+      <c r="P148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -8720,17 +9578,39 @@
       <c r="H149" t="n">
         <v>-1.340918981563811</v>
       </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="inlineStr"/>
-      <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
+      </c>
+      <c r="P149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
+      <c r="R149" t="n">
+        <v>0</v>
+      </c>
+      <c r="S149" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -8824,17 +9704,39 @@
       <c r="H151" t="n">
         <v>0.3003245769656665</v>
       </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="inlineStr"/>
-      <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0</v>
+      </c>
+      <c r="P151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -8896,7 +9798,7 @@
         <v>0</v>
       </c>
       <c r="S152" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153">
@@ -8947,19 +9849,19 @@
         <v>0</v>
       </c>
       <c r="O153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P153" t="n">
         <v>0</v>
       </c>
       <c r="Q153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R153" t="n">
         <v>0</v>
       </c>
       <c r="S153" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154">
@@ -8995,7 +9897,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K154" t="n">
         <v>0</v>
@@ -9010,19 +9912,19 @@
         <v>0</v>
       </c>
       <c r="O154" t="n">
+        <v>7</v>
+      </c>
+      <c r="P154" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>8</v>
+      </c>
+      <c r="R154" t="n">
         <v>3</v>
       </c>
-      <c r="P154" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>3</v>
-      </c>
-      <c r="R154" t="n">
-        <v>1</v>
-      </c>
       <c r="S154" t="n">
-        <v>109</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155">
@@ -9055,7 +9957,7 @@
         <v>1.997592502484504</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155" t="n">
         <v>0</v>
@@ -9067,25 +9969,25 @@
         <v>1</v>
       </c>
       <c r="M155" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
       </c>
       <c r="O155" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P155" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="Q155" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R155" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S155" t="n">
-        <v>90</v>
+        <v>144</v>
       </c>
     </row>
     <row r="156">
@@ -9252,7 +10154,7 @@
         <v>0</v>
       </c>
       <c r="S158" t="n">
-        <v>28</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159">
@@ -9284,17 +10186,39 @@
       <c r="H159" t="n">
         <v>97.33724829314758</v>
       </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="inlineStr"/>
-      <c r="N159" t="inlineStr"/>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>0</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1</v>
+      </c>
+      <c r="P159" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -9325,17 +10249,39 @@
       <c r="H160" t="n">
         <v>50.03073535569791</v>
       </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr"/>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0</v>
+      </c>
+      <c r="P160" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -9366,17 +10312,39 @@
       <c r="H161" t="n">
         <v>110.5780618238409</v>
       </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="inlineStr"/>
-      <c r="N161" t="inlineStr"/>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1</v>
+      </c>
+      <c r="P161" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>1</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -9407,17 +10375,39 @@
       <c r="H162" t="n">
         <v>18.64290649557612</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="inlineStr"/>
-      <c r="N162" t="inlineStr"/>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -9449,37 +10439,37 @@
         <v>19.33321596160636</v>
       </c>
       <c r="I163" t="n">
+        <v>3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>19</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
         <v>2</v>
       </c>
-      <c r="J163" t="n">
-        <v>14</v>
-      </c>
-      <c r="K163" t="n">
-        <v>1</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0</v>
-      </c>
-      <c r="N163" t="n">
-        <v>1</v>
-      </c>
       <c r="O163" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="P163" t="n">
         <v>0</v>
       </c>
       <c r="Q163" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="R163" t="n">
         <v>2</v>
       </c>
       <c r="S163" t="n">
-        <v>89</v>
+        <v>147</v>
       </c>
     </row>
     <row r="164">
@@ -9530,19 +10520,19 @@
         <v>0</v>
       </c>
       <c r="O164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q164" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R164" t="n">
         <v>0</v>
       </c>
       <c r="S164" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
@@ -9575,7 +10565,7 @@
         <v>6.005259158395726</v>
       </c>
       <c r="I165" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J165" t="n">
         <v>0</v>
@@ -9599,13 +10589,13 @@
         <v>3</v>
       </c>
       <c r="Q165" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R165" t="n">
         <v>2</v>
       </c>
       <c r="S165" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="166">
@@ -9656,19 +10646,19 @@
         <v>0</v>
       </c>
       <c r="O166" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P166" t="n">
         <v>0</v>
       </c>
       <c r="Q166" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R166" t="n">
         <v>0</v>
       </c>
       <c r="S166" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167">
@@ -9704,7 +10694,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K167" t="n">
         <v>0</v>
@@ -9731,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="S167" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
     </row>
     <row r="168">
@@ -9794,7 +10784,7 @@
         <v>2</v>
       </c>
       <c r="S168" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
@@ -9868,10 +10858,10 @@
         <v>0.6676856772485718</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K170" t="n">
         <v>0</v>
@@ -9898,7 +10888,7 @@
         <v>0</v>
       </c>
       <c r="S170" t="n">
-        <v>28</v>
+        <v>52</v>
       </c>
     </row>
     <row r="171">
@@ -9949,19 +10939,19 @@
         <v>0</v>
       </c>
       <c r="O171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P171" t="n">
         <v>0</v>
       </c>
       <c r="Q171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R171" t="n">
         <v>0</v>
       </c>
       <c r="S171" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172">
@@ -9997,7 +10987,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K172" t="n">
         <v>0</v>
@@ -10012,19 +11002,19 @@
         <v>0</v>
       </c>
       <c r="O172" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q172" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R172" t="n">
         <v>0</v>
       </c>
       <c r="S172" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="173">
@@ -10056,17 +11046,39 @@
       <c r="H173" t="n">
         <v>-31.88884583163678</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr"/>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -10097,17 +11109,39 @@
       <c r="H174" t="n">
         <v>22.36228340011779</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
-      <c r="N174" t="inlineStr"/>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>1</v>
+      </c>
+      <c r="R174" t="n">
+        <v>0</v>
+      </c>
+      <c r="S174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -10138,17 +11172,39 @@
       <c r="H175" t="n">
         <v>27.68308667524064</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr"/>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>1</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -10156,7 +11212,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Reunion</t>
+          <t>Réunion</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -10224,7 +11280,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K177" t="n">
         <v>1</v>
@@ -10239,19 +11295,19 @@
         <v>0</v>
       </c>
       <c r="O177" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q177" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S177" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="178">
@@ -10284,10 +11340,10 @@
         <v>3.002135473540003</v>
       </c>
       <c r="I178" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J178" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K178" t="n">
         <v>1</v>
@@ -10299,22 +11355,22 @@
         <v>0</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O178" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="P178" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q178" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="R178" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="S178" t="n">
-        <v>1958</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="179">
@@ -10346,17 +11402,39 @@
       <c r="H179" t="n">
         <v>1.235323556659552</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="inlineStr"/>
-      <c r="N179" t="inlineStr"/>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M179" t="n">
+        <v>0</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>2</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -10364,7 +11442,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Saint Barthï¿½lemy</t>
+          <t>Saint Barthélemy</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -10387,17 +11465,39 @@
       <c r="H180" t="n">
         <v>-2.59559710164245</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr"/>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>0</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -10469,17 +11569,39 @@
       <c r="H182" t="n">
         <v>-0.3874335597411072</v>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr"/>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -10510,17 +11632,39 @@
       <c r="H183" t="n">
         <v>-3.068285929365813</v>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr"/>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -10551,17 +11695,39 @@
       <c r="H184" t="n">
         <v>11.29630658647522</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr"/>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>0</v>
+      </c>
+      <c r="S184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -10592,17 +11758,39 @@
       <c r="H185" t="n">
         <v>2.450644860585288</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -10633,17 +11821,39 @@
       <c r="H186" t="n">
         <v>0.0190096291788983</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr"/>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -10674,17 +11884,39 @@
       <c r="H187" t="n">
         <v>-5.448858494964322</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr"/>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>0</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -10715,17 +11947,39 @@
       <c r="H188" t="n">
         <v>3252.125838222999</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr"/>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M188" t="n">
+        <v>0</v>
+      </c>
+      <c r="N188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -10756,17 +12010,39 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr"/>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -10813,22 +12089,22 @@
         <v>0</v>
       </c>
       <c r="N190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O190" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P190" t="n">
         <v>0</v>
       </c>
       <c r="Q190" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R190" t="n">
         <v>1</v>
       </c>
       <c r="S190" t="n">
-        <v>202</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191">
@@ -10864,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K191" t="n">
         <v>0</v>
@@ -10879,19 +12155,19 @@
         <v>0</v>
       </c>
       <c r="O191" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P191" t="n">
         <v>0</v>
       </c>
       <c r="Q191" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R191" t="n">
         <v>0</v>
       </c>
       <c r="S191" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="192">
@@ -10942,19 +12218,19 @@
         <v>0</v>
       </c>
       <c r="O192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P192" t="n">
         <v>0</v>
       </c>
       <c r="Q192" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R192" t="n">
         <v>0</v>
       </c>
       <c r="S192" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="193">
@@ -11017,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="S193" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -11053,7 +12329,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K194" t="n">
         <v>0</v>
@@ -11068,19 +12344,19 @@
         <v>0</v>
       </c>
       <c r="O194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P194" t="n">
         <v>0</v>
       </c>
       <c r="Q194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R194" t="n">
         <v>0</v>
       </c>
       <c r="S194" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="195">
@@ -11112,17 +12388,39 @@
       <c r="H195" t="n">
         <v>-13.07897391917945</v>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr"/>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0</v>
+      </c>
+      <c r="S195" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -11184,7 +12482,7 @@
         <v>0</v>
       </c>
       <c r="S196" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197">
@@ -11235,19 +12533,19 @@
         <v>0</v>
       </c>
       <c r="O197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P197" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q197" t="n">
+        <v>9</v>
+      </c>
+      <c r="R197" t="n">
         <v>2</v>
       </c>
-      <c r="R197" t="n">
-        <v>1</v>
-      </c>
       <c r="S197" t="n">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="198">
@@ -11279,17 +12577,39 @@
       <c r="H198" t="n">
         <v>11.66346925048865</v>
       </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M198" t="n">
+        <v>0</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1</v>
+      </c>
+      <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>2</v>
+      </c>
+      <c r="R198" t="n">
+        <v>0</v>
+      </c>
+      <c r="S198" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -11342,16 +12662,16 @@
         <v>9</v>
       </c>
       <c r="P199" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>10</v>
+      </c>
+      <c r="R199" t="n">
         <v>7</v>
       </c>
-      <c r="Q199" t="n">
-        <v>9</v>
-      </c>
-      <c r="R199" t="n">
-        <v>6</v>
-      </c>
       <c r="S199" t="n">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="200">
@@ -11384,10 +12704,10 @@
         <v>-0.5398745867691426</v>
       </c>
       <c r="I200" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K200" t="n">
         <v>0</v>
@@ -11402,19 +12722,19 @@
         <v>0</v>
       </c>
       <c r="O200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P200" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q200" t="n">
         <v>6</v>
       </c>
-      <c r="Q200" t="n">
-        <v>3</v>
-      </c>
       <c r="R200" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="S200" t="n">
-        <v>141</v>
+        <v>203</v>
       </c>
     </row>
     <row r="201">
@@ -11477,7 +12797,7 @@
         <v>0</v>
       </c>
       <c r="S201" t="n">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="202">
@@ -11513,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K202" t="n">
         <v>0</v>
@@ -11540,7 +12860,7 @@
         <v>2</v>
       </c>
       <c r="S202" t="n">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="203">
@@ -11576,7 +12896,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K203" t="n">
         <v>0</v>
@@ -11594,16 +12914,16 @@
         <v>0</v>
       </c>
       <c r="P203" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q203" t="n">
         <v>0</v>
       </c>
       <c r="R203" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S203" t="n">
-        <v>55</v>
+        <v>116</v>
       </c>
     </row>
     <row r="204">
@@ -11639,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K204" t="n">
         <v>0</v>
@@ -11648,25 +12968,25 @@
         <v>0</v>
       </c>
       <c r="M204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N204" t="n">
         <v>1</v>
       </c>
       <c r="O204" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P204" t="n">
         <v>0</v>
       </c>
       <c r="Q204" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="R204" t="n">
         <v>0</v>
       </c>
       <c r="S204" t="n">
-        <v>166</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205">
@@ -11729,7 +13049,7 @@
         <v>0</v>
       </c>
       <c r="S205" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206">
@@ -11780,19 +13100,19 @@
         <v>0</v>
       </c>
       <c r="O206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P206" t="n">
         <v>0</v>
       </c>
       <c r="Q206" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R206" t="n">
         <v>0</v>
       </c>
       <c r="S206" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="207">
@@ -11909,7 +13229,7 @@
         <v>0</v>
       </c>
       <c r="P208" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q208" t="n">
         <v>1</v>
@@ -11918,7 +13238,7 @@
         <v>1</v>
       </c>
       <c r="S208" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209">
@@ -11975,13 +13295,13 @@
         <v>0</v>
       </c>
       <c r="Q209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R209" t="n">
         <v>1</v>
       </c>
       <c r="S209" t="n">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="210">
@@ -12013,17 +13333,39 @@
       <c r="H210" t="n">
         <v>0.0924987275263853</v>
       </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr"/>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -12058,7 +13400,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K211" t="n">
         <v>0</v>
@@ -12085,7 +13427,7 @@
         <v>1</v>
       </c>
       <c r="S211" t="n">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="212">
@@ -12139,16 +13481,16 @@
         <v>0</v>
       </c>
       <c r="P212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q212" t="n">
         <v>3</v>
       </c>
       <c r="R212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S212" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="213">
@@ -12184,7 +13526,7 @@
         <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K213" t="n">
         <v>0</v>
@@ -12211,7 +13553,7 @@
         <v>1</v>
       </c>
       <c r="S213" t="n">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="214">
@@ -12243,17 +13585,39 @@
       <c r="H214" t="n">
         <v>4.992686733668088</v>
       </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="inlineStr"/>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1</v>
+      </c>
+      <c r="P214" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>1</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -12366,17 +13730,39 @@
       <c r="H217" t="n">
         <v>2.941035261711629</v>
       </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr"/>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -12411,7 +13797,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K218" t="n">
         <v>0</v>
@@ -12426,19 +13812,19 @@
         <v>0</v>
       </c>
       <c r="O218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P218" t="n">
         <v>0</v>
       </c>
       <c r="Q218" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S218" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219">
@@ -12474,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K219" t="n">
         <v>0</v>
@@ -12489,19 +13875,19 @@
         <v>0</v>
       </c>
       <c r="O219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P219" t="n">
         <v>0</v>
       </c>
       <c r="Q219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R219" t="n">
         <v>0</v>
       </c>
       <c r="S219" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="220">
@@ -12510,7 +13896,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Türkiye</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -12534,10 +13920,10 @@
         <v>-1.732872713340538</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J220" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K220" t="n">
         <v>0</v>
@@ -12552,19 +13938,19 @@
         <v>0</v>
       </c>
       <c r="O220" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P220" t="n">
         <v>1</v>
       </c>
       <c r="Q220" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="R220" t="n">
         <v>6</v>
       </c>
       <c r="S220" t="n">
-        <v>81</v>
+        <v>114</v>
       </c>
     </row>
     <row r="221">
@@ -12597,7 +13983,7 @@
         <v>2.991821664616107</v>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J221" t="n">
         <v>2</v>
@@ -12615,19 +14001,19 @@
         <v>1</v>
       </c>
       <c r="O221" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P221" t="n">
         <v>2</v>
       </c>
       <c r="Q221" t="n">
+        <v>7</v>
+      </c>
+      <c r="R221" t="n">
         <v>4</v>
       </c>
-      <c r="R221" t="n">
-        <v>2</v>
-      </c>
       <c r="S221" t="n">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="222">
@@ -12659,17 +14045,39 @@
       <c r="H222" t="n">
         <v>1.83101287035903</v>
       </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr"/>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -12700,17 +14108,39 @@
       <c r="H223" t="n">
         <v>50.17795593853789</v>
       </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr"/>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1</v>
+      </c>
+      <c r="P223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>1</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -12760,19 +14190,19 @@
         <v>0</v>
       </c>
       <c r="O224" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P224" t="n">
         <v>0</v>
       </c>
       <c r="Q224" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R224" t="n">
         <v>0</v>
       </c>
       <c r="S224" t="n">
-        <v>23</v>
+        <v>57</v>
       </c>
     </row>
     <row r="225">
@@ -12808,7 +14238,7 @@
         <v>1</v>
       </c>
       <c r="J225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K225" t="n">
         <v>0</v>
@@ -12823,19 +14253,19 @@
         <v>0</v>
       </c>
       <c r="O225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R225" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S225" t="n">
-        <v>48</v>
+        <v>99</v>
       </c>
     </row>
     <row r="226">
@@ -12867,17 +14297,39 @@
       <c r="H226" t="n">
         <v>0.0411184956969679</v>
       </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr"/>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
+      <c r="R226" t="n">
+        <v>0</v>
+      </c>
+      <c r="S226" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -12927,19 +14379,19 @@
         <v>0</v>
       </c>
       <c r="O227" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P227" t="n">
         <v>3</v>
       </c>
       <c r="Q227" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S227" t="n">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="228">
@@ -13002,7 +14454,7 @@
         <v>0</v>
       </c>
       <c r="S228" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="229">
@@ -13034,17 +14486,39 @@
       <c r="H229" t="n">
         <v>33.61536414607508</v>
       </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1</v>
+      </c>
+      <c r="P229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>1</v>
+      </c>
+      <c r="R229" t="n">
+        <v>0</v>
+      </c>
+      <c r="S229" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -13075,17 +14549,39 @@
       <c r="H230" t="n">
         <v>26.42607184395778</v>
       </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>1</v>
+      </c>
+      <c r="R230" t="n">
+        <v>0</v>
+      </c>
+      <c r="S230" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -13180,10 +14676,10 @@
         <v>1.045524700235748</v>
       </c>
       <c r="I232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J232" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
@@ -13198,19 +14694,19 @@
         <v>0</v>
       </c>
       <c r="O232" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q232" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="R232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S232" t="n">
-        <v>94</v>
+        <v>142</v>
       </c>
     </row>
     <row r="233">
@@ -13246,13 +14742,13 @@
         <v>5</v>
       </c>
       <c r="J233" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K233" t="n">
         <v>1</v>
       </c>
       <c r="L233" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M233" t="n">
         <v>1</v>
@@ -13261,19 +14757,19 @@
         <v>5</v>
       </c>
       <c r="O233" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P233" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q233" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R233" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S233" t="n">
-        <v>1112</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="234">
@@ -13305,17 +14801,39 @@
       <c r="H234" t="n">
         <v>-3.398585687460274</v>
       </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -13350,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
@@ -13365,19 +14883,19 @@
         <v>0</v>
       </c>
       <c r="O235" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q235" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R235" t="n">
         <v>3</v>
       </c>
       <c r="S235" t="n">
-        <v>20</v>
+        <v>67</v>
       </c>
     </row>
     <row r="236">
@@ -13419,7 +14937,7 @@
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -13428,19 +14946,19 @@
         <v>0</v>
       </c>
       <c r="O236" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P236" t="n">
         <v>1</v>
       </c>
       <c r="Q236" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R236" t="n">
         <v>1</v>
       </c>
       <c r="S236" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="237">
@@ -13473,37 +14991,37 @@
         <v>-20.92965332068842</v>
       </c>
       <c r="I237" t="n">
+        <v>11</v>
+      </c>
+      <c r="J237" t="n">
+        <v>5</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>11</v>
+      </c>
+      <c r="P237" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>13</v>
+      </c>
+      <c r="R237" t="n">
         <v>7</v>
       </c>
-      <c r="J237" t="n">
-        <v>4</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0</v>
-      </c>
-      <c r="L237" t="n">
-        <v>0</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0</v>
-      </c>
-      <c r="O237" t="n">
-        <v>5</v>
-      </c>
-      <c r="P237" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>4</v>
-      </c>
-      <c r="R237" t="n">
-        <v>4</v>
-      </c>
       <c r="S237" t="n">
-        <v>30</v>
+        <v>86</v>
       </c>
     </row>
     <row r="238">
@@ -13554,19 +15072,19 @@
         <v>0</v>
       </c>
       <c r="O238" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P238" t="n">
         <v>5</v>
       </c>
       <c r="Q238" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R238" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S238" t="n">
-        <v>91</v>
+        <v>138</v>
       </c>
     </row>
     <row r="239">
@@ -13705,13 +15223,13 @@
         <v>0</v>
       </c>
       <c r="Q241" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R241" t="n">
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
     </row>
     <row r="242">
@@ -13744,53 +15262,45 @@
         <v>-0.5959612667016593</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J242" t="n">
+        <v>5</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
         <v>2</v>
       </c>
-      <c r="K242" t="n">
-        <v>0</v>
-      </c>
-      <c r="L242" t="n">
-        <v>0</v>
-      </c>
-      <c r="M242" t="n">
-        <v>0</v>
-      </c>
       <c r="N242" t="n">
         <v>0</v>
       </c>
       <c r="O242" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P242" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q242" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R242" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S242" t="n">
-        <v>58</v>
+        <v>124</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
         <v>999</v>
       </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Taiwan</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
-        </is>
-      </c>
+      <c r="B243" t="inlineStr"/>
+      <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
         <v>-0.1170403974053572</v>
       </c>
@@ -13820,32 +15330,28 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Aksai Chin</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
-        <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Azores Islands</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
-        <v>-7.171825432536076</v>
+        <v>-2.163929849705617</v>
       </c>
       <c r="E244" t="n">
-        <v>1.326264029316258</v>
+        <v>-40.01303791338912</v>
       </c>
       <c r="F244" t="n">
-        <v>-0.0087635284561595</v>
+        <v>-15.06069444646456</v>
       </c>
       <c r="G244" t="n">
-        <v>5.102470478827953</v>
+        <v>43.22012580929422</v>
       </c>
       <c r="H244" t="n">
-        <v>8.4080917687807</v>
+        <v>46.69694605923889</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -13861,139 +15367,201 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Arunachal Pradesh</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Canary Islands</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>0.885339434158401</v>
+        <v>-3.115553017406619</v>
       </c>
       <c r="E245" t="n">
-        <v>2.075022740996331</v>
+        <v>0.4379299636003554</v>
       </c>
       <c r="F245" t="n">
-        <v>-0.3655752193384758</v>
+        <v>6.211616043430024</v>
       </c>
       <c r="G245" t="n">
-        <v>-4.915879857399814</v>
+        <v>-0.2501640701869584</v>
       </c>
       <c r="H245" t="n">
-        <v>-5.024187942395048</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr"/>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="inlineStr"/>
+        <v>2.595056941361496</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M245" t="n">
+        <v>0</v>
+      </c>
+      <c r="N245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Ashmore and Cartier Islands</t>
+          <t>Aksai Chin</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Australia and New Zealand (M49)</t>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>-7.171825432536076</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>1.326264029316258</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>-0.0087635284561595</v>
       </c>
       <c r="G246" t="n">
-        <v>68.48885951600001</v>
+        <v>5.102470478827953</v>
       </c>
       <c r="H246" t="n">
-        <v>8732.321439309999</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr"/>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="inlineStr"/>
+        <v>8.4080917687807</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>0</v>
+      </c>
+      <c r="N246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Clipperton Island</t>
+          <t>Arunachal Pradesh</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Northern America (M49) and Europe (M49)</t>
+          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>0.885339434158401</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>2.075022740996331</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>-0.3655752193384758</v>
       </c>
       <c r="G247" t="n">
-        <v>0</v>
+        <v>-4.915879857399814</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr"/>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="inlineStr"/>
+        <v>-5.024187942395048</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0</v>
+      </c>
+      <c r="P247" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
+      <c r="R247" t="n">
+        <v>1</v>
+      </c>
+      <c r="S247" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>1025</v>
+        <v>1015</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Europa Island</t>
+          <t>Ashmore and Cartier Islands</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Sub-Saharan Africa (M49)</t>
+          <t>Australia and New Zealand (M49)</t>
         </is>
       </c>
       <c r="D248" t="n">
@@ -14006,10 +15574,10 @@
         <v>0</v>
       </c>
       <c r="G248" t="n">
-        <v>0</v>
+        <v>68.48885951600001</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>8732.321439309999</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -14047,32 +15615,28 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Gaza</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>Western Asia (M49) and Northern Africa (M49)</t>
-        </is>
-      </c>
+          <t>Baker Island</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
-        <v>13.99112739348284</v>
+        <v>0</v>
       </c>
       <c r="E249" t="n">
-        <v>4.246888974056818</v>
+        <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>-9.12941785384383</v>
+        <v>0</v>
       </c>
       <c r="G249" t="n">
-        <v>-3.518050066015998</v>
+        <v>0</v>
       </c>
       <c r="H249" t="n">
-        <v>-1.214230794350005</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -14088,32 +15652,28 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>1029</v>
+        <v>1017</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Abyei</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>Western Asia (M49) and Northern Africa (M49)</t>
-        </is>
-      </c>
+          <t>Bassas da India</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
-        <v>-94.0767975463944</v>
+        <v>0</v>
       </c>
       <c r="E250" t="n">
-        <v>-61.74405533044514</v>
+        <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>117.6776459126021</v>
+        <v>0</v>
       </c>
       <c r="G250" t="n">
-        <v>626.3223022636051</v>
+        <v>0</v>
       </c>
       <c r="H250" t="n">
-        <v>626.3223022636051</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -14129,18 +15689,14 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>1034</v>
+        <v>1018</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Juan de Nova Island</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa (M49)</t>
-        </is>
-      </c>
+          <t>Bird Island</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
         <v>0</v>
       </c>
@@ -14156,172 +15712,142 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0</v>
-      </c>
-      <c r="L251" t="n">
-        <v>0</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0</v>
-      </c>
-      <c r="P251" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q251" t="n">
-        <v>0</v>
-      </c>
-      <c r="R251" t="n">
-        <v>0</v>
-      </c>
-      <c r="S251" t="n">
-        <v>1</v>
-      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr"/>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr"/>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>1036</v>
+        <v>1019</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Kuril Islands</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>Northern America (M49) and Europe (M49)</t>
-        </is>
-      </c>
+          <t>Bouvet Island</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr"/>
       <c r="D252" t="n">
-        <v>1.493281593413807</v>
+        <v>0</v>
       </c>
       <c r="E252" t="n">
-        <v>-0.7670762820026605</v>
+        <v>0</v>
       </c>
       <c r="F252" t="n">
-        <v>-1.8120811553743</v>
+        <v>0</v>
       </c>
       <c r="G252" t="n">
-        <v>-2.925128989440484</v>
+        <v>0</v>
       </c>
       <c r="H252" t="n">
-        <v>-1.88658898452848</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0</v>
-      </c>
-      <c r="P252" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q252" t="n">
-        <v>0</v>
-      </c>
-      <c r="R252" t="n">
-        <v>1</v>
-      </c>
-      <c r="S252" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr"/>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+      <c r="R252" t="inlineStr"/>
+      <c r="S252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>1038</v>
+        <v>1021</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Madeira Island</t>
-        </is>
-      </c>
-      <c r="C253" t="inlineStr">
-        <is>
-          <t>Northern America (M49) and Europe (M49)</t>
-        </is>
-      </c>
+          <t>China/India</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
-        <v>-24.3199341408082</v>
+        <v>-0.0317690139450619</v>
       </c>
       <c r="E253" t="n">
-        <v>-20.86004829344278</v>
+        <v>-4.35710816667068</v>
       </c>
       <c r="F253" t="n">
-        <v>5.713359576658088</v>
+        <v>-3.194367396032879</v>
       </c>
       <c r="G253" t="n">
-        <v>9.58815136763979</v>
+        <v>5.038244506689912</v>
       </c>
       <c r="H253" t="n">
-        <v>7.950339774457933</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="inlineStr"/>
-      <c r="N253" t="inlineStr"/>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="inlineStr"/>
+        <v>5.305981526982297</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M253" t="n">
+        <v>0</v>
+      </c>
+      <c r="N253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0</v>
+      </c>
+      <c r="P253" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>1040</v>
+        <v>1023</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Navassa Island</t>
+          <t>Clipperton Island</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Latin America and the Caribbean (MDG=M49)</t>
+          <t>Northern America (M49) and Europe (M49)</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>-1.924028271338562</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
-        <v>99.62533266594164</v>
+        <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>1.924028271338546</v>
+        <v>0</v>
       </c>
       <c r="G254" t="n">
-        <v>-36.31205230228879</v>
+        <v>0</v>
       </c>
       <c r="H254" t="n">
-        <v>-36.31205230228879</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -14359,16 +15885,16 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Paracel Islands</t>
+          <t>Europa Island</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+          <t>Sub-Saharan Africa (M49)</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -14381,10 +15907,10 @@
         <v>0</v>
       </c>
       <c r="G255" t="n">
-        <v>365416.9374369269</v>
+        <v>0</v>
       </c>
       <c r="H255" t="n">
-        <v>138283.990001689</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -14422,100 +15948,140 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Scarborough Reef</t>
+          <t>Gaza</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+          <t>Western Asia (M49) and Northern Africa (M49)</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>13.99112739348284</v>
       </c>
       <c r="E256" t="n">
-        <v>0</v>
+        <v>4.246888974056818</v>
       </c>
       <c r="F256" t="n">
-        <v>0</v>
+        <v>-9.12941785384383</v>
       </c>
       <c r="G256" t="n">
-        <v>0</v>
+        <v>-3.518050066015998</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="inlineStr"/>
-      <c r="N256" t="inlineStr"/>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="inlineStr"/>
+        <v>-1.214230794350005</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M256" t="n">
+        <v>0</v>
+      </c>
+      <c r="N256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
+      <c r="R256" t="n">
+        <v>0</v>
+      </c>
+      <c r="S256" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>1044</v>
+        <v>1029</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Senkaku Islands</t>
+          <t>Abyei</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+          <t>Western Asia (M49) and Northern Africa (M49)</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>-94.0767975463944</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>-61.74405533044514</v>
       </c>
       <c r="F257" t="n">
-        <v>0</v>
+        <v>117.6776459126021</v>
       </c>
       <c r="G257" t="n">
-        <v>13984.918128699</v>
+        <v>626.3223022636051</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="inlineStr"/>
-      <c r="N257" t="inlineStr"/>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="inlineStr"/>
+        <v>626.3223022636051</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>1</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M257" t="n">
+        <v>0</v>
+      </c>
+      <c r="N257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O257" t="n">
+        <v>1</v>
+      </c>
+      <c r="P257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>1046</v>
+        <v>1031</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Spratly Islands</t>
-        </is>
-      </c>
-      <c r="C258" t="inlineStr">
-        <is>
-          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Howland Island</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr"/>
       <c r="D258" t="n">
         <v>0</v>
       </c>
@@ -14526,59 +16092,33 @@
         <v>0</v>
       </c>
       <c r="G258" t="n">
-        <v>17594.894161447</v>
+        <v>0</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0</v>
-      </c>
-      <c r="L258" t="n">
-        <v>0</v>
-      </c>
-      <c r="M258" t="n">
-        <v>0</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0</v>
-      </c>
-      <c r="P258" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q258" t="n">
-        <v>0</v>
-      </c>
-      <c r="R258" t="n">
-        <v>0</v>
-      </c>
-      <c r="S258" t="n">
-        <v>1</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="inlineStr"/>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr"/>
+      <c r="R258" t="inlineStr"/>
+      <c r="S258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>1047</v>
+        <v>1032</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Tromelin Island</t>
-        </is>
-      </c>
-      <c r="C259" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa (M49)</t>
-        </is>
-      </c>
+          <t>Jarvis Island</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr"/>
       <c r="D259" t="n">
         <v>0</v>
       </c>
@@ -14594,54 +16134,28 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0</v>
-      </c>
-      <c r="P259" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q259" t="n">
-        <v>0</v>
-      </c>
-      <c r="R259" t="n">
-        <v>0</v>
-      </c>
-      <c r="S259" t="n">
-        <v>1</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="inlineStr"/>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr"/>
+      <c r="R259" t="inlineStr"/>
+      <c r="S259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>1048</v>
+        <v>1033</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Wake Island</t>
-        </is>
-      </c>
-      <c r="C260" t="inlineStr">
-        <is>
-          <t>Oceania (M49) excluding Australia and New Zealand (M49)</t>
-        </is>
-      </c>
+          <t>Johnston Atoll</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr"/>
       <c r="D260" t="n">
         <v>0</v>
       </c>
@@ -14652,10 +16166,10 @@
         <v>0</v>
       </c>
       <c r="G260" t="n">
-        <v>146624.587305055</v>
+        <v>0</v>
       </c>
       <c r="H260" t="n">
-        <v>28197.408603577</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -14671,214 +16185,254 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>1049</v>
+        <v>1034</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>West Bank</t>
+          <t>Juan de Nova Island</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Western Asia (M49) and Northern Africa (M49)</t>
+          <t>Sub-Saharan Africa (M49)</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>2.058961557630048</v>
+        <v>0</v>
       </c>
       <c r="E261" t="n">
-        <v>0.7750863823024343</v>
+        <v>0</v>
       </c>
       <c r="F261" t="n">
-        <v>-0.875351408129432</v>
+        <v>0</v>
       </c>
       <c r="G261" t="n">
-        <v>-1.944177153142633</v>
+        <v>0</v>
       </c>
       <c r="H261" t="n">
-        <v>-2.39810145476154</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
-      <c r="N261" t="inlineStr"/>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
-      <c r="S261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0</v>
+      </c>
+      <c r="M261" t="n">
+        <v>0</v>
+      </c>
+      <c r="N261" t="n">
+        <v>0</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0</v>
+      </c>
+      <c r="P261" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
+      <c r="R261" t="n">
+        <v>0</v>
+      </c>
+      <c r="S261" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Jammu and Kashmir</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
-        </is>
-      </c>
+          <t>Kingman Reef</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr"/>
       <c r="D262" t="n">
-        <v>-0.1995741481351145</v>
+        <v>0</v>
       </c>
       <c r="E262" t="n">
-        <v>0.2691028069353409</v>
+        <v>0</v>
       </c>
       <c r="F262" t="n">
-        <v>1.046474029213461</v>
+        <v>0</v>
       </c>
       <c r="G262" t="n">
-        <v>-0.1463673079139013</v>
+        <v>0</v>
       </c>
       <c r="H262" t="n">
-        <v>-0.1463673079139013</v>
-      </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0</v>
-      </c>
-      <c r="P262" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q262" t="n">
-        <v>0</v>
-      </c>
-      <c r="R262" t="n">
-        <v>0</v>
-      </c>
-      <c r="S262" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+      <c r="R262" t="inlineStr"/>
+      <c r="S262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>1068</v>
+        <v>1036</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Saba</t>
+          <t>Kuril Islands</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Latin America and the Caribbean (MDG=M49)</t>
+          <t>Northern America (M49) and Europe (M49)</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>29.3096849449843</v>
+        <v>1.493281593413807</v>
       </c>
       <c r="E263" t="n">
-        <v>55.78031426322237</v>
+        <v>-0.7670762820026605</v>
       </c>
       <c r="F263" t="n">
-        <v>-11.66069926053863</v>
+        <v>-1.8120811553743</v>
       </c>
       <c r="G263" t="n">
-        <v>-76.57492768835262</v>
+        <v>-2.925128989440484</v>
       </c>
       <c r="H263" t="n">
-        <v>-91.07334467598884</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr"/>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="inlineStr"/>
+        <v>-1.88658898452848</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0</v>
+      </c>
+      <c r="M263" t="n">
+        <v>0</v>
+      </c>
+      <c r="N263" t="n">
+        <v>0</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
+      <c r="R263" t="n">
+        <v>1</v>
+      </c>
+      <c r="S263" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>1082</v>
+        <v>1038</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Glorioso Islands</t>
-        </is>
-      </c>
-      <c r="C264" t="inlineStr"/>
+          <t>Madeira Island</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Northern America (M49) and Europe (M49)</t>
+        </is>
+      </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>-24.3199341408082</v>
       </c>
       <c r="E264" t="n">
-        <v>0</v>
+        <v>-20.86004829344278</v>
       </c>
       <c r="F264" t="n">
-        <v>0</v>
+        <v>5.713359576658088</v>
       </c>
       <c r="G264" t="n">
-        <v>148968.212888576</v>
+        <v>9.58815136763979</v>
       </c>
       <c r="H264" t="n">
-        <v>96391.16004109298</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr"/>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="inlineStr"/>
+        <v>7.950339774457933</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0</v>
+      </c>
+      <c r="M264" t="n">
+        <v>0</v>
+      </c>
+      <c r="N264" t="n">
+        <v>0</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0</v>
+      </c>
+      <c r="P264" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>1097</v>
+        <v>1039</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>French Southern Territories</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Sub-Saharan Africa (M49)</t>
-        </is>
-      </c>
+          <t>Midway Islands</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
       <c r="D265" t="n">
-        <v>-12.06212353151521</v>
+        <v>0</v>
       </c>
       <c r="E265" t="n">
-        <v>-10.78005967200967</v>
+        <v>0</v>
       </c>
       <c r="F265" t="n">
-        <v>1.514930032143944</v>
+        <v>0</v>
       </c>
       <c r="G265" t="n">
-        <v>7.836725165774556</v>
+        <v>1569974.74781283</v>
       </c>
       <c r="H265" t="n">
-        <v>7.497696887077701</v>
+        <v>1569974.74781283</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -14894,44 +16448,811 @@
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
+        <v>1040</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Navassa Island</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Latin America and the Caribbean (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>-1.924028271338562</v>
+      </c>
+      <c r="E266" t="n">
+        <v>99.62533266594164</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1.924028271338546</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-36.31205230228879</v>
+      </c>
+      <c r="H266" t="n">
+        <v>-36.31205230228879</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0</v>
+      </c>
+      <c r="M266" t="n">
+        <v>0</v>
+      </c>
+      <c r="N266" t="n">
+        <v>0</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
+      <c r="R266" t="n">
+        <v>0</v>
+      </c>
+      <c r="S266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>1041</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Palmyra Atoll</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr"/>
+      <c r="R267" t="inlineStr"/>
+      <c r="S267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>1042</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Paracel Islands</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>365416.9374369269</v>
+      </c>
+      <c r="H268" t="n">
+        <v>138283.990001689</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0</v>
+      </c>
+      <c r="M268" t="n">
+        <v>0</v>
+      </c>
+      <c r="N268" t="n">
+        <v>0</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0</v>
+      </c>
+      <c r="P268" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>1043</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Scarborough Reef</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+      <c r="R269" t="inlineStr"/>
+      <c r="S269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Senkaku Islands</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>13984.918128699</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0</v>
+      </c>
+      <c r="M270" t="n">
+        <v>0</v>
+      </c>
+      <c r="N270" t="n">
+        <v>0</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0</v>
+      </c>
+      <c r="P270" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
+      <c r="R270" t="n">
+        <v>0</v>
+      </c>
+      <c r="S270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>1046</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Spratly Islands</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Eastern Asia (M49) and South-eastern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>17594.894161447</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0</v>
+      </c>
+      <c r="M271" t="n">
+        <v>0</v>
+      </c>
+      <c r="N271" t="n">
+        <v>0</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0</v>
+      </c>
+      <c r="P271" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
+      <c r="R271" t="n">
+        <v>0</v>
+      </c>
+      <c r="S271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>1047</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Tromelin Island</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa (M49)</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0</v>
+      </c>
+      <c r="M272" t="n">
+        <v>0</v>
+      </c>
+      <c r="N272" t="n">
+        <v>0</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0</v>
+      </c>
+      <c r="P272" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
+      <c r="S272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>1048</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Wake Island</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Oceania (M49) excluding Australia and New Zealand (M49)</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>146624.587305055</v>
+      </c>
+      <c r="H273" t="n">
+        <v>28197.408603577</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0</v>
+      </c>
+      <c r="M273" t="n">
+        <v>0</v>
+      </c>
+      <c r="N273" t="n">
+        <v>0</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0</v>
+      </c>
+      <c r="P273" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
+      <c r="S273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>1049</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>West Bank</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Western Asia (M49) and Northern Africa (M49)</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>2.058961557630048</v>
+      </c>
+      <c r="E274" t="n">
+        <v>0.7750863823024343</v>
+      </c>
+      <c r="F274" t="n">
+        <v>-0.875351408129432</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-1.944177153142633</v>
+      </c>
+      <c r="H274" t="n">
+        <v>-2.39810145476154</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0</v>
+      </c>
+      <c r="M274" t="n">
+        <v>0</v>
+      </c>
+      <c r="N274" t="n">
+        <v>0</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0</v>
+      </c>
+      <c r="P274" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
+      <c r="R274" t="n">
+        <v>0</v>
+      </c>
+      <c r="S274" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>1052</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Jammu and Kashmir</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Central Asia (M49) and Southern Asia (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>-0.1995741481351145</v>
+      </c>
+      <c r="E275" t="n">
+        <v>0.2691028069353409</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1.046474029213461</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-0.1463673079139013</v>
+      </c>
+      <c r="H275" t="n">
+        <v>-0.1463673079139013</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0</v>
+      </c>
+      <c r="M275" t="n">
+        <v>0</v>
+      </c>
+      <c r="N275" t="n">
+        <v>0</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0</v>
+      </c>
+      <c r="P275" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>1068</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Saba</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Latin America and the Caribbean (MDG=M49)</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>29.3096849449843</v>
+      </c>
+      <c r="E276" t="n">
+        <v>55.78031426322237</v>
+      </c>
+      <c r="F276" t="n">
+        <v>-11.66069926053863</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-76.57492768835262</v>
+      </c>
+      <c r="H276" t="n">
+        <v>-91.07334467598884</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0</v>
+      </c>
+      <c r="P276" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>1082</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Glorioso Islands</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>148968.212888576</v>
+      </c>
+      <c r="H277" t="n">
+        <v>96391.16004109298</v>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>0</v>
+      </c>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>1097</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>French Southern Territories</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Sub-Saharan Africa (M49)</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>-12.06212353151521</v>
+      </c>
+      <c r="E278" t="n">
+        <v>-10.78005967200967</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1.514930032143944</v>
+      </c>
+      <c r="G278" t="n">
+        <v>7.836725165774556</v>
+      </c>
+      <c r="H278" t="n">
+        <v>7.497696887077701</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+      <c r="R278" t="inlineStr"/>
+      <c r="S278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
         <v>1098</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>Akrotiri</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>Western Asia (M49) and Northern Africa (M49)</t>
         </is>
       </c>
-      <c r="D266" t="n">
+      <c r="D279" t="n">
         <v>-2.887862626354357</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E279" t="n">
         <v>3.048329401313892</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F279" t="n">
         <v>0.4283615249218035</v>
       </c>
-      <c r="G266" t="n">
+      <c r="G279" t="n">
         <v>2.017381686429112</v>
       </c>
-      <c r="H266" t="n">
+      <c r="H279" t="n">
         <v>6.389124719066775</v>
       </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr"/>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="inlineStr"/>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>0</v>
+      </c>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
+      <c r="R279" t="n">
+        <v>0</v>
+      </c>
+      <c r="S279" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
